--- a/Data/Export/Common/ItemType_道具类型.xlsx
+++ b/Data/Export/Common/ItemType_道具类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1970F73-1B0A-4CA0-8C78-782F5ED741AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68384193-6ACD-45FA-85B7-62729BB21046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出建筑类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createBuildingKind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,36 +819,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="54.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -857,22 +869,24 @@
       <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="13"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
@@ -881,14 +895,15 @@
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="6"/>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W1" s="13"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -899,14 +914,14 @@
       <c r="F2" s="18"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="2"/>
+      <c r="I2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="14"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
@@ -915,14 +930,15 @@
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
-      <c r="W2" s="2"/>
+      <c r="W2" s="14"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -947,22 +963,24 @@
       <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -977,8 +995,9 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
-    </row>
-    <row r="4" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="4" spans="1:29" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1004,10 +1023,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>3</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>5</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>5</v>
@@ -1018,7 +1037,9 @@
       <c r="M4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1027,8 +1048,9 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1048,13 +1070,13 @@
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1066,9 +1088,10 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z5" s="4"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1089,13 +1112,15 @@
       <c r="H6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1107,9 +1132,10 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z6" s="4"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1129,13 +1155,15 @@
       <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1147,9 +1175,10 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z7" s="4"/>
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1169,13 +1198,15 @@
       <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1187,9 +1218,10 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z8" s="4"/>
+      <c r="AB8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1209,13 +1241,15 @@
       <c r="H9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1227,9 +1261,10 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z9" s="4"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1245,22 +1280,22 @@
       <c r="F10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="4">
-        <v>-1</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4">
+        <v>37</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1272,9 +1307,10 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="AA10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z10" s="4"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1296,16 +1332,18 @@
       <c r="H11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1317,9 +1355,10 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z11" s="4"/>
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1330,27 +1369,27 @@
         <v>3</v>
       </c>
       <c r="E12" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="4">
-        <v>-2</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="4">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1362,9 +1401,10 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z12" s="4"/>
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1375,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>72</v>
@@ -1386,16 +1426,18 @@
       <c r="H13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="4">
+        <v>37</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1407,9 +1449,10 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z13" s="4"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1420,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
@@ -1429,13 +1472,13 @@
       <c r="H14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1447,9 +1490,10 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z14" s="4"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1460,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>72</v>
@@ -1469,16 +1513,18 @@
       <c r="H15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1490,9 +1536,10 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1503,25 +1550,29 @@
         <v>4</v>
       </c>
       <c r="E16" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="4">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1533,16 +1584,17 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1554,16 +1606,17 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1575,457 +1628,508 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z18" s="4"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="W19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z20" s="4"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="W21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z21" s="4"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="W22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z22" s="4"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="W23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z23" s="4"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="W24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z24" s="4"/>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z25" s="4"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z26" s="4"/>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="W27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z27" s="4"/>
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="W28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z28" s="4"/>
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="W29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z29" s="4"/>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="W30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z30" s="4"/>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="W31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z31" s="4"/>
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="W32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z32" s="4"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="W33" s="4"/>
+      <c r="I33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z33" s="4"/>
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="W34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z34" s="4"/>
+      <c r="AB34" s="4"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="W35" s="4"/>
+      <c r="I35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z35" s="4"/>
+      <c r="AB35" s="4"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="W36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z36" s="4"/>
+      <c r="AB36" s="4"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="W37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z37" s="4"/>
+      <c r="AB37" s="4"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="W38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z38" s="4"/>
+      <c r="AB38" s="4"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="W39" s="4"/>
+      <c r="I39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z39" s="4"/>
+      <c r="AB39" s="4"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="W40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z40" s="4"/>
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="W41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
-      <c r="AA41" s="4"/>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z41" s="4"/>
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="W42" s="4"/>
+      <c r="I42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="AA42" s="4"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z42" s="4"/>
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="W43" s="4"/>
+      <c r="I43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-      <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z43" s="4"/>
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="W44" s="4"/>
+      <c r="I44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-      <c r="AA44" s="4"/>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z44" s="4"/>
+      <c r="AB44" s="4"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="W45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-      <c r="AA45" s="4"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z45" s="4"/>
+      <c r="AB45" s="4"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="AA46" s="4"/>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="I46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="G69" s="4"/>
